--- a/overview_files.xlsx
+++ b/overview_files.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>point-Fig_number_10-pkt_117-B.bxy</t>
+          <t>point-Fig_number_10-pkt_118-B.bxy</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -499,7 +499,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>118</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -510,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>point-Fig_number_100-pkt_1158-B.bxy</t>
+          <t>point-Fig_number_100-pkt_1173-B.bxy</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -533,7 +533,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -544,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>point-Fig_number_1000-pkt_11636-B.bxy</t>
+          <t>point-Fig_number_1000-pkt_11670-B.bxy</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -567,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11636</t>
+          <t>11670</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>point-Fig_number_10000-pkt_116531-B.bxy</t>
+          <t>point-Fig_number_10000-pkt_116585-B.bxy</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -601,7 +601,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>116531</t>
+          <t>116585</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -612,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>point-Fig_number_10000-pkt_116564-B.bxy</t>
+          <t>point-Fig_number_10000-pkt_116698-B.bxy</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -635,7 +635,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>116564</t>
+          <t>116698</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -646,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>point-Fig_number_100000-pkt_1165979-B.bxy</t>
+          <t>point-Fig_number_100000-pkt_1165843-B.bxy</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1165979</t>
+          <t>1165843</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -680,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>point-Fig_number_1000000-pkt_11661125-B.bxy</t>
+          <t>point-Fig_number_1000000-pkt_11660740-B.bxy</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -703,7 +703,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11661125</t>
+          <t>11660740</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -714,7 +714,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>point-Fig_number_20-pkt_234-B.bxy</t>
+          <t>point-Fig_number_20-pkt_231-B.bxy</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -737,7 +737,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>231</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -748,7 +748,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>point-Fig_number_200-pkt_2346-B.bxy</t>
+          <t>point-Fig_number_200-pkt_2325-B.bxy</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2346</t>
+          <t>2325</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -782,7 +782,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>point-Fig_number_2000-pkt_23290-B.bxy</t>
+          <t>point-Fig_number_2000-pkt_23335-B.bxy</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -805,7 +805,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23290</t>
+          <t>23335</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -816,7 +816,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>point-Fig_number_20000-pkt_233384-B.bxy</t>
+          <t>point-Fig_number_20000-pkt_233226-B.bxy</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>233384</t>
+          <t>233226</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -850,7 +850,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>point-Fig_number_200000-pkt_2332125-B.bxy</t>
+          <t>point-Fig_number_200000-pkt_2331732-B.bxy</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -873,7 +873,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2332125</t>
+          <t>2331732</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>point-Fig_number_2000000-pkt_23320952-B.bxy</t>
+          <t>point-Fig_number_2000000-pkt_23319938-B.bxy</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -907,7 +907,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23320952</t>
+          <t>23319938</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -918,7 +918,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>point-Fig_number_30-pkt_350-B.bxy</t>
+          <t>point-Fig_number_30-pkt_353-B.bxy</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>353</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -952,7 +952,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>point-Fig_number_300-pkt_3496-B.bxy</t>
+          <t>point-Fig_number_300-pkt_3486-B.bxy</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>3486</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>point-Fig_number_3000-pkt_34951-B.bxy</t>
+          <t>point-Fig_number_3000-pkt_34997-B.bxy</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>34951</t>
+          <t>34997</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>point-Fig_number_30000-pkt_349835-B.bxy</t>
+          <t>point-Fig_number_30000-pkt_349734-B.bxy</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>349835</t>
+          <t>349734</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>point-Fig_number_300000-pkt_3497995-B.bxy</t>
+          <t>point-Fig_number_300000-pkt_3498279-B.bxy</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3497995</t>
+          <t>3498279</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>point-Fig_number_40-pkt_469-B.bxy</t>
+          <t>point-Fig_number_40-pkt_468-B.bxy</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>468</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>point-Fig_number_400-pkt_4671-B.bxy</t>
+          <t>point-Fig_number_400-pkt_4689-B.bxy</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4671</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>point-Fig_number_4000-pkt_46669-B.bxy</t>
+          <t>point-Fig_number_4000-pkt_46608-B.bxy</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>46669</t>
+          <t>46608</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>point-Fig_number_40000-pkt_466295-B.bxy</t>
+          <t>point-Fig_number_40000-pkt_466589-B.bxy</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>466295</t>
+          <t>466589</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>point-Fig_number_400000-pkt_4664571-B.bxy</t>
+          <t>point-Fig_number_400000-pkt_4665056-B.bxy</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4664571</t>
+          <t>4665056</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>point-Fig_number_50-pkt_583-B.bxy</t>
+          <t>point-Fig_number_50-pkt_580-B.bxy</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>580</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>point-Fig_number_500-pkt_5826-B.bxy</t>
+          <t>point-Fig_number_500-pkt_5823-B.bxy</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>5823</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>point-Fig_number_5000-pkt_58245-B.bxy</t>
+          <t>point-Fig_number_5000-pkt_58322-B.bxy</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>58245</t>
+          <t>58322</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>point-Fig_number_50000-pkt_583286-B.bxy</t>
+          <t>point-Fig_number_50000-pkt_583153-B.bxy</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>583286</t>
+          <t>583153</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>point-Fig_number_500000-pkt_5829837-B.bxy</t>
+          <t>point-Fig_number_500000-pkt_5831241-B.bxy</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5829837</t>
+          <t>5831241</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>point-Fig_number_60-pkt_697-B.bxy</t>
+          <t>point-Fig_number_60-pkt_695-B.bxy</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>695</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>point-Fig_number_600-pkt_6979-B.bxy</t>
+          <t>point-Fig_number_600-pkt_6971-B.bxy</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>6971</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>point-Fig_number_6000-pkt_70041-B.bxy</t>
+          <t>point-Fig_number_6000-pkt_69963-B.bxy</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>70041</t>
+          <t>69963</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>point-Fig_number_60000-pkt_699638-B.bxy</t>
+          <t>point-Fig_number_60000-pkt_699871-B.bxy</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>699638</t>
+          <t>699871</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>point-Fig_number_600000-pkt_6996769-B.bxy</t>
+          <t>point-Fig_number_600000-pkt_6995946-B.bxy</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>6996769</t>
+          <t>6995946</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>point-Fig_number_70-pkt_813-B.bxy</t>
+          <t>point-Fig_number_70-pkt_817-B.bxy</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>817</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>point-Fig_number_700-pkt_8154-B.bxy</t>
+          <t>point-Fig_number_700-pkt_8190-B.bxy</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>8154</t>
+          <t>8190</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>point-Fig_number_7000-pkt_81680-B.bxy</t>
+          <t>point-Fig_number_7000-pkt_81675-B.bxy</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>81680</t>
+          <t>81675</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>point-Fig_number_70000-pkt_816306-B.bxy</t>
+          <t>point-Fig_number_70000-pkt_816611-B.bxy</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>816306</t>
+          <t>816611</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>point-Fig_number_700000-pkt_8163066-B.bxy</t>
+          <t>point-Fig_number_700000-pkt_8162619-B.bxy</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>8163066</t>
+          <t>8162619</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>point-Fig_number_80-pkt_928-B.bxy</t>
+          <t>point-Fig_number_80-pkt_936-B.bxy</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>936</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>point-Fig_number_800-pkt_9314-B.bxy</t>
+          <t>point-Fig_number_800-pkt_9359-B.bxy</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>9314</t>
+          <t>9359</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>point-Fig_number_8000-pkt_93309-B.bxy</t>
+          <t>point-Fig_number_8000-pkt_93274-B.bxy</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>93309</t>
+          <t>93274</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>point-Fig_number_80000-pkt_932727-B.bxy</t>
+          <t>point-Fig_number_80000-pkt_932624-B.bxy</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>932727</t>
+          <t>932624</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>point-Fig_number_800000-pkt_9329054-B.bxy</t>
+          <t>point-Fig_number_800000-pkt_9328196-B.bxy</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>9329054</t>
+          <t>9328196</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>point-Fig_number_90-pkt_1051-B.bxy</t>
+          <t>point-Fig_number_90-pkt_1053-B.bxy</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>point-Fig_number_900-pkt_10489-B.bxy</t>
+          <t>point-Fig_number_900-pkt_10507-B.bxy</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10489</t>
+          <t>10507</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>point-Fig_number_9000-pkt_104874-B.bxy</t>
+          <t>point-Fig_number_9000-pkt_104922-B.bxy</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>104874</t>
+          <t>104922</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>point-Fig_number_90000-pkt_1048866-B.bxy</t>
+          <t>point-Fig_number_90000-pkt_1049514-B.bxy</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1048866</t>
+          <t>1049514</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>point-Fig_number_900000-pkt_10495150-B.bxy</t>
+          <t>point-Fig_number_900000-pkt_10493894-B.bxy</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10495150</t>
+          <t>10493894</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>vek-Fig_number_10-pkt_206-B.bxy</t>
+          <t>vek-Fig_number_10-pkt_213-B.bxy</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>213</t>
         </is>
       </c>
       <c r="H285" t="inlineStr"/>
@@ -11072,7 +11072,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>vek-Fig_number_100-pkt_1891-B.bxy</t>
+          <t>vek-Fig_number_100-pkt_1877-B.bxy</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>1877</t>
         </is>
       </c>
       <c r="H286" t="inlineStr"/>
@@ -11106,7 +11106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>vek-Fig_number_1000-pkt_18483-B.bxy</t>
+          <t>vek-Fig_number_1000-pkt_18506-B.bxy</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>18483</t>
+          <t>18506</t>
         </is>
       </c>
       <c r="H287" t="inlineStr"/>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>vek-Fig_number_10000-pkt_184412-B.bxy</t>
+          <t>vek-Fig_number_10000-pkt_184259-B.bxy</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>184412</t>
+          <t>184259</t>
         </is>
       </c>
       <c r="H288" t="inlineStr"/>
@@ -11174,7 +11174,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>vek-Fig_number_10000-pkt_184612-B.bxy</t>
+          <t>vek-Fig_number_10000-pkt_184314-B.bxy</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>184612</t>
+          <t>184314</t>
         </is>
       </c>
       <c r="H289" t="inlineStr"/>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>vek-Fig_number_100000-pkt_1844297-B.bxy</t>
+          <t>vek-Fig_number_100000-pkt_1843640-B.bxy</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>1844297</t>
+          <t>1843640</t>
         </is>
       </c>
       <c r="H290" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>vek-Fig_number_1000000-pkt_18442580-B.bxy</t>
+          <t>vek-Fig_number_1000000-pkt_18442458-B.bxy</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -11265,7 +11265,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>18442580</t>
+          <t>18442458</t>
         </is>
       </c>
       <c r="H291" t="inlineStr"/>
@@ -11310,7 +11310,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>vek-Fig_number_200-pkt_3695-B.bxy</t>
+          <t>vek-Fig_number_200-pkt_3718-B.bxy</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -11333,7 +11333,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>3695</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="H293" t="inlineStr"/>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>vek-Fig_number_2000-pkt_36910-B.bxy</t>
+          <t>vek-Fig_number_2000-pkt_36932-B.bxy</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>36910</t>
+          <t>36932</t>
         </is>
       </c>
       <c r="H294" t="inlineStr"/>
@@ -11378,7 +11378,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>vek-Fig_number_20000-pkt_368802-B.bxy</t>
+          <t>vek-Fig_number_20000-pkt_368937-B.bxy</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>368802</t>
+          <t>368937</t>
         </is>
       </c>
       <c r="H295" t="inlineStr"/>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>vek-Fig_number_200000-pkt_3688881-B.bxy</t>
+          <t>vek-Fig_number_200000-pkt_3688338-B.bxy</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>3688881</t>
+          <t>3688338</t>
         </is>
       </c>
       <c r="H296" t="inlineStr"/>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>vek-Fig_number_2000000-pkt_36884091-B.bxy</t>
+          <t>vek-Fig_number_2000000-pkt_36885287-B.bxy</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>36884091</t>
+          <t>36885287</t>
         </is>
       </c>
       <c r="H297" t="inlineStr"/>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>vek-Fig_number_30-pkt_574-B.bxy</t>
+          <t>vek-Fig_number_30-pkt_584-B.bxy</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -11503,7 +11503,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>584</t>
         </is>
       </c>
       <c r="H298" t="inlineStr"/>
@@ -11514,7 +11514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>vek-Fig_number_300-pkt_5564-B.bxy</t>
+          <t>vek-Fig_number_300-pkt_5617-B.bxy</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -11537,7 +11537,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>5564</t>
+          <t>5617</t>
         </is>
       </c>
       <c r="H299" t="inlineStr"/>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>vek-Fig_number_3000-pkt_55414-B.bxy</t>
+          <t>vek-Fig_number_3000-pkt_55444-B.bxy</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -11571,7 +11571,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>55414</t>
+          <t>55444</t>
         </is>
       </c>
       <c r="H300" t="inlineStr"/>
@@ -11582,7 +11582,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>vek-Fig_number_30000-pkt_553423-B.bxy</t>
+          <t>vek-Fig_number_30000-pkt_553087-B.bxy</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>553423</t>
+          <t>553087</t>
         </is>
       </c>
       <c r="H301" t="inlineStr"/>
@@ -11616,7 +11616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>vek-Fig_number_300000-pkt_5532482-B.bxy</t>
+          <t>vek-Fig_number_300000-pkt_5533394-B.bxy</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -11639,7 +11639,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>5532482</t>
+          <t>5533394</t>
         </is>
       </c>
       <c r="H302" t="inlineStr"/>
@@ -11650,7 +11650,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>vek-Fig_number_40-pkt_770-B.bxy</t>
+          <t>vek-Fig_number_40-pkt_766-B.bxy</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -11673,7 +11673,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>766</t>
         </is>
       </c>
       <c r="H303" t="inlineStr"/>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>vek-Fig_number_400-pkt_7395-B.bxy</t>
+          <t>vek-Fig_number_400-pkt_7421-B.bxy</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -11707,7 +11707,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>7395</t>
+          <t>7421</t>
         </is>
       </c>
       <c r="H304" t="inlineStr"/>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>vek-Fig_number_4000-pkt_73698-B.bxy</t>
+          <t>vek-Fig_number_4000-pkt_73710-B.bxy</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>73698</t>
+          <t>73710</t>
         </is>
       </c>
       <c r="H305" t="inlineStr"/>
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>vek-Fig_number_40000-pkt_737645-B.bxy</t>
+          <t>vek-Fig_number_40000-pkt_737198-B.bxy</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -11775,7 +11775,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>737645</t>
+          <t>737198</t>
         </is>
       </c>
       <c r="H306" t="inlineStr"/>
@@ -11786,7 +11786,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>vek-Fig_number_400000-pkt_7377187-B.bxy</t>
+          <t>vek-Fig_number_400000-pkt_7376903-B.bxy</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>7377187</t>
+          <t>7376903</t>
         </is>
       </c>
       <c r="H307" t="inlineStr"/>
@@ -11820,7 +11820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>vek-Fig_number_50-pkt_952-B.bxy</t>
+          <t>vek-Fig_number_50-pkt_951-B.bxy</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>951</t>
         </is>
       </c>
       <c r="H308" t="inlineStr"/>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>vek-Fig_number_500-pkt_9254-B.bxy</t>
+          <t>vek-Fig_number_500-pkt_9264-B.bxy</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>9254</t>
+          <t>9264</t>
         </is>
       </c>
       <c r="H309" t="inlineStr"/>
@@ -11888,7 +11888,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>vek-Fig_number_5000-pkt_92219-B.bxy</t>
+          <t>vek-Fig_number_5000-pkt_92196-B.bxy</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>92219</t>
+          <t>92196</t>
         </is>
       </c>
       <c r="H310" t="inlineStr"/>
@@ -11922,7 +11922,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>vek-Fig_number_50000-pkt_921789-B.bxy</t>
+          <t>vek-Fig_number_50000-pkt_922301-B.bxy</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>921789</t>
+          <t>922301</t>
         </is>
       </c>
       <c r="H311" t="inlineStr"/>
@@ -11956,7 +11956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>vek-Fig_number_500000-pkt_9221351-B.bxy</t>
+          <t>vek-Fig_number_500000-pkt_9221370-B.bxy</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -11979,7 +11979,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>9221351</t>
+          <t>9221370</t>
         </is>
       </c>
       <c r="H312" t="inlineStr"/>
@@ -11990,7 +11990,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>vek-Fig_number_60-pkt_1123-B.bxy</t>
+          <t>vek-Fig_number_60-pkt_1133-B.bxy</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -12013,7 +12013,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="H313" t="inlineStr"/>
@@ -12024,7 +12024,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>vek-Fig_number_600-pkt_11101-B.bxy</t>
+          <t>vek-Fig_number_600-pkt_11117-B.bxy</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -12047,7 +12047,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>11101</t>
+          <t>11117</t>
         </is>
       </c>
       <c r="H314" t="inlineStr"/>
@@ -12058,7 +12058,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>vek-Fig_number_6000-pkt_110725-B.bxy</t>
+          <t>vek-Fig_number_6000-pkt_110708-B.bxy</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -12081,7 +12081,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>110725</t>
+          <t>110708</t>
         </is>
       </c>
       <c r="H315" t="inlineStr"/>
@@ -12092,7 +12092,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>vek-Fig_number_60000-pkt_1106465-B.bxy</t>
+          <t>vek-Fig_number_60000-pkt_1106037-B.bxy</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -12115,7 +12115,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>1106465</t>
+          <t>1106037</t>
         </is>
       </c>
       <c r="H316" t="inlineStr"/>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>vek-Fig_number_600000-pkt_11066376-B.bxy</t>
+          <t>vek-Fig_number_600000-pkt_11065377-B.bxy</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -12149,7 +12149,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>11066376</t>
+          <t>11065377</t>
         </is>
       </c>
       <c r="H317" t="inlineStr"/>
@@ -12160,7 +12160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>vek-Fig_number_70-pkt_1311-B.bxy</t>
+          <t>vek-Fig_number_70-pkt_1341-B.bxy</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -12183,7 +12183,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>1311</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="H318" t="inlineStr"/>
@@ -12194,7 +12194,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>vek-Fig_number_700-pkt_12943-B.bxy</t>
+          <t>vek-Fig_number_700-pkt_12953-B.bxy</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -12217,7 +12217,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>12943</t>
+          <t>12953</t>
         </is>
       </c>
       <c r="H319" t="inlineStr"/>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>vek-Fig_number_7000-pkt_129092-B.bxy</t>
+          <t>vek-Fig_number_7000-pkt_129179-B.bxy</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>129092</t>
+          <t>129179</t>
         </is>
       </c>
       <c r="H320" t="inlineStr"/>
@@ -12262,7 +12262,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>vek-Fig_number_70000-pkt_1291190-B.bxy</t>
+          <t>vek-Fig_number_70000-pkt_1291401-B.bxy</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>1291190</t>
+          <t>1291401</t>
         </is>
       </c>
       <c r="H321" t="inlineStr"/>
@@ -12296,7 +12296,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>vek-Fig_number_700000-pkt_12909756-B.bxy</t>
+          <t>vek-Fig_number_700000-pkt_12909289-B.bxy</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>12909756</t>
+          <t>12909289</t>
         </is>
       </c>
       <c r="H322" t="inlineStr"/>
@@ -12330,7 +12330,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>vek-Fig_number_80-pkt_1471-B.bxy</t>
+          <t>vek-Fig_number_80-pkt_1515-B.bxy</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>1515</t>
         </is>
       </c>
       <c r="H323" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>vek-Fig_number_800-pkt_14769-B.bxy</t>
+          <t>vek-Fig_number_800-pkt_14787-B.bxy</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -12387,7 +12387,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>14769</t>
+          <t>14787</t>
         </is>
       </c>
       <c r="H324" t="inlineStr"/>
@@ -12398,7 +12398,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>vek-Fig_number_8000-pkt_147472-B.bxy</t>
+          <t>vek-Fig_number_8000-pkt_147519-B.bxy</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>147472</t>
+          <t>147519</t>
         </is>
       </c>
       <c r="H325" t="inlineStr"/>
@@ -12432,7 +12432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>vek-Fig_number_80000-pkt_1475509-B.bxy</t>
+          <t>vek-Fig_number_80000-pkt_1475120-B.bxy</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>1475509</t>
+          <t>1475120</t>
         </is>
       </c>
       <c r="H326" t="inlineStr"/>
@@ -12466,7 +12466,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>vek-Fig_number_800000-pkt_14752621-B.bxy</t>
+          <t>vek-Fig_number_800000-pkt_14753945-B.bxy</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -12489,7 +12489,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>14752621</t>
+          <t>14753945</t>
         </is>
       </c>
       <c r="H327" t="inlineStr"/>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>vek-Fig_number_90-pkt_1674-B.bxy</t>
+          <t>vek-Fig_number_90-pkt_1688-B.bxy</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -12523,7 +12523,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>1674</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="H328" t="inlineStr"/>
@@ -12534,7 +12534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>vek-Fig_number_900-pkt_16644-B.bxy</t>
+          <t>vek-Fig_number_900-pkt_16648-B.bxy</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>16644</t>
+          <t>16648</t>
         </is>
       </c>
       <c r="H329" t="inlineStr"/>
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>vek-Fig_number_9000-pkt_165932-B.bxy</t>
+          <t>vek-Fig_number_9000-pkt_166034-B.bxy</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>165932</t>
+          <t>166034</t>
         </is>
       </c>
       <c r="H330" t="inlineStr"/>
@@ -12602,7 +12602,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>vek-Fig_number_90000-pkt_1660045-B.bxy</t>
+          <t>vek-Fig_number_90000-pkt_1659307-B.bxy</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -12625,7 +12625,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>1660045</t>
+          <t>1659307</t>
         </is>
       </c>
       <c r="H331" t="inlineStr"/>
@@ -12636,7 +12636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>vek-Fig_number_900000-pkt_16598012-B.bxy</t>
+          <t>vek-Fig_number_900000-pkt_16596354-B.bxy</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -12659,7 +12659,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>16598012</t>
+          <t>16596354</t>
         </is>
       </c>
       <c r="H332" t="inlineStr"/>
